--- a/2025-03-03_4o-mini_feedback_sheets/overall_spec/Dermatomyositis_spec_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_spec/Dermatomyositis_spec_overall.xlsx
@@ -10,7 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hpi" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hist" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="soc" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="obj" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,7 +466,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is commonly associated with dermatomyositis and indicates vascular involvement.</t>
+          <t>Raynaud's phenomenon is commonly associated with connective tissue diseases, including dermatomyositis.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of muscle weakness is a significant finding against the diagnosis of dermatomyositis, as it is a hallmark symptom.</t>
+          <t>Muscle weakness is a hallmark symptom of dermatomyositis, and its absence makes the diagnosis less likely.</t>
         </is>
       </c>
     </row>
@@ -488,83 +488,83 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Telangiectasias are a classic cutaneous manifestation of dermatomyositis, supporting the diagnosis.</t>
+          <t>Telangiectasias can be associated with dermatomyositis, as they are a feature of connective tissue disorders.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Joint swelling reported is absent.</t>
+          <t>Hand thickness reported is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Absence of joint swelling suggests that inflammatory arthritis, which can accompany dermatomyositis, is not present.</t>
+          <t>Thickening of the skin on the hands can be seen in dermatomyositis, and its absence is against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Difficulty swallowing liquids is present.</t>
+          <t>Difficulty swallowing solids is present.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dysphagia is a common symptom in dermatomyositis due to esophageal muscle involvement.</t>
+          <t>Dysphagia, or difficulty swallowing, is a common symptom in dermatomyositis due to muscle involvement.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Multiple symmetric joints hurt is absent.</t>
+          <t>Finger ulcers reported is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of pain in multiple symmetric joints reduces the likelihood of dermatomyositis, which often presents with such symptoms.</t>
+          <t>Finger ulcers can be associated with dermatomyositis, and their absence makes the diagnosis less likely.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Difficulty swallowing solids is present.</t>
+          <t>Weight loss reported is present.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Similar to liquids, difficulty swallowing solids can indicate esophageal involvement in dermatomyositis.</t>
+          <t>Unintentional weight loss can occur in dermatomyositis due to muscle weakness and associated dysphagia.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Hoarse voice reported is absent.</t>
+          <t>Multiple symmetric joints hurt is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A hoarse voice can indicate laryngeal involvement in dermatomyositis, and its absence weakens the case for the diagnosis.</t>
+          <t>Arthralgia or arthritis can be associated with dermatomyositis, and its absence is against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Weight loss reported is present.</t>
+          <t>Pain when swallowing (aka odynophagia) is present.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Weight loss can occur in dermatomyositis due to muscle weakness and dysphagia, indicating systemic involvement.</t>
+          <t>Odynophagia can be associated with dermatomyositis due to esophageal involvement.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cough reported is absent.</t>
+          <t>Morning stiffness is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of cough, which can be associated with pulmonary involvement in dermatomyositis, further argues against the diagnosis.</t>
+          <t>Morning stiffness can be associated with inflammatory conditions like dermatomyositis, and its absence is against the diagnosis.</t>
         </is>
       </c>
     </row>
@@ -612,110 +612,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Female is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dermatomyositis is more common in females than males, which supports the likelihood of this diagnosis.</t>
+          <t>Dermatomyositis is more common in females, which increases the likelihood of the diagnosis.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Prior treatment with radiation to the neck, arm, or jaw is absent</t>
+          <t>Absence of obesity.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of prior radiation treatment reduces the likelihood of radiation-induced myopathy, which can present similarly to Dermatomyositis.</t>
+          <t>Obesity can exacerbate symptoms similar to those of Dermatomyositis, so its absence slightly reduces the likelihood.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Middle age</t>
+          <t>Middle age is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dermatomyositis typically presents in middle-aged individuals, making this demographic detail supportive of the diagnosis.</t>
+          <t>Dermatomyositis often presents in middle-aged individuals, supporting the diagnosis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Previously diagnosed Coronary Artery Disease is absent</t>
+          <t>Absence of type 2 diabetes.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of coronary artery disease suggests a lower risk profile for conditions that may overlap with or mimic Dermatomyositis.</t>
+          <t>Diabetes can lead to muscle weakness and skin changes, so its absence slightly reduces the likelihood of Dermatomyositis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Takes amlodipine</t>
+          <t>Takes amlodipine is present.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>While not directly indicative of Dermatomyositis, the presence of hypertension treatment may suggest a background of chronic health issues that can be associated with autoimmune conditions.</t>
+          <t>While not directly related to Dermatomyositis, the use of amlodipine may indicate management of conditions that can coexist with or mimic symptoms of Dermatomyositis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Prevopis;u doagmpsed Peripheral Artery Disease is absent</t>
+          <t>Absence of diagnosed hypertension.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of peripheral artery disease indicates a lower likelihood of vascular complications that could be confused with Dermatomyositis symptoms.</t>
+          <t>Hypertension is often associated with systemic diseases that can mimic Dermatomyositis, so its absence slightly reduces the likelihood.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Alcohol use disorder is absent</t>
+          <t>Absence of recent medication changes.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The absence of alcohol use disorder is relevant as it reduces the likelihood of alternative diagnoses that could mimic Dermatomyositis symptoms.</t>
+          <t>Stable medication regimens can help rule out drug-induced myopathies, which can mimic Dermatomyositis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Previously diagnosed Hyperlipidemia is absent</t>
+          <t>Absence of previously diagnosed Hyperlipidemia.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of hyperlipidemia suggests a lower risk for cardiovascular issues that may present with muscle symptoms, reducing the likelihood of Dermatomyositis.</t>
+          <t>Hyperlipidemia can be associated with systemic inflammation, which can mimic symptoms of Dermatomyositis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Nicotine dependence is absent</t>
+          <t>Absence of prior treatment with radiation to the neck, arm, or jaw.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of nicotine dependence is relevant as it reduces the likelihood of alternative diagnoses that could mimic Dermatomyositis symptoms.</t>
+          <t>Radiation can cause skin changes and muscle weakness that mimic Dermatomyositis, so its absence supports the diagnosis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Prior myocardial infarction is absent</t>
+          <t>Absence of prior myocardial infarction.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of a prior myocardial infarction indicates a lower risk for cardiovascular complications that could mimic or complicate the presentation of Dermatomyositis.</t>
+          <t>Cardiac issues can lead to muscle weakness and fatigue, which can mimic Dermatomyositis symptoms.</t>
         </is>
       </c>
     </row>
@@ -768,17 +768,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Social stress can exacerbate autoimmune conditions, including Dermatomyositis, making this a relevant finding.</t>
+          <t>Social stress can be a trigger for autoimmune conditions, including dermatomyositis, as stress can exacerbate immune system dysregulation.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Family history of cancer is absent.</t>
+          <t>Family history of Rheumatoid Arthritis is absent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of cancer in the family history may suggest a lower likelihood of certain autoimmune diseases, including Dermatomyositis.</t>
+          <t>A family history of autoimmune diseases like rheumatoid arthritis can increase the likelihood of other autoimmune conditions, including dermatomyositis. Its absence slightly argues against dermatomyositis.</t>
         </is>
       </c>
     </row>
@@ -790,17 +790,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tobacco use has been associated with various autoimmune diseases, including Dermatomyositis, suggesting a potential link.</t>
+          <t>While not directly linked, prior tobacco use can contribute to systemic inflammation, which may play a role in autoimmune diseases like dermatomyositis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recent Travel is absent.</t>
+          <t>Alcohol use is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Absence of recent travel may indicate a lower risk of infections or environmental triggers that can exacerbate Dermatomyositis.</t>
+          <t>While not directly linked, alcohol use can sometimes exacerbate autoimmune conditions. Its absence slightly argues against dermatomyositis.</t>
         </is>
       </c>
     </row>
@@ -812,17 +812,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>While not directly linked, a family history of cardiovascular issues may suggest a genetic predisposition to autoimmune conditions.</t>
+          <t>Cardiovascular issues can sometimes be associated with systemic inflammatory conditions, although this is a weaker link to dermatomyositis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recent medical procedure is absent.</t>
+          <t>Current tobacco use is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of recent medical procedures may suggest a lower likelihood of complications or triggers associated with Dermatomyositis.</t>
+          <t>Current tobacco use can contribute to systemic inflammation, which may exacerbate autoimmune diseases. Its absence slightly argues against dermatomyositis.</t>
         </is>
       </c>
     </row>
@@ -834,39 +834,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The absence of Rheumatoid Arthritis in the family may suggest a different autoimmune profile, which could include Dermatomyositis.</t>
+          <t>The absence of a family history of rheumatoid arthritis does not strongly support dermatomyositis, but it does not rule it out either.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Gestational complications with prior pregnancy is absent.</t>
+          <t>Recent Travel is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Absence of gestational complications may indicate a lower risk profile for autoimmune diseases, including Dermatomyositis.</t>
+          <t>Recent travel can sometimes expose individuals to infections or stressors that might trigger autoimmune conditions. Its absence slightly argues against dermatomyositis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Alcohol use is absent.</t>
+          <t>Family history of cancer is absent.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Absence of alcohol use may indicate a healthier lifestyle, which can be a favorable factor in managing autoimmune diseases.</t>
+          <t>While dermatomyositis can be associated with malignancies, the absence of a family history of cancer does not strongly support or refute the diagnosis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Current tobacco use is absent.</t>
+          <t>Recent medical procedure is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Current absence of tobacco use may suggest a lower risk for developing autoimmune conditions, including Dermatomyositis.</t>
+          <t>Medical procedures can sometimes trigger autoimmune responses. The absence of recent procedures slightly argues against dermatomyositis.</t>
         </is>
       </c>
     </row>
@@ -914,110 +914,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Telangiectasias on exam is present.</t>
+          <t>Hyperlipidemia on lab testing is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Telangiectasias are a common cutaneous manifestation of Dermatomyositis, indicating vascular involvement.</t>
+          <t>Hyperlipidemia can be associated with inflammatory muscle diseases, including dermatomyositis, although it is not a specific finding.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Weakness on exam is absent.</t>
+          <t>CT shows ILD is absent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of muscle weakness is a strong indicator against Dermatomyositis, as it is a hallmark symptom of the condition.</t>
+          <t>The absence of interstitial lung disease (ILD) is significant as ILD is a common complication of dermatomyositis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Weight loss on vitals is present.</t>
+          <t>ANA strong positive is absent.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Weight loss can be associated with the underlying inflammatory process in Dermatomyositis.</t>
+          <t>The absence of a strong positive ANA does not strongly support dermatomyositis, but its presence would have been more supportive.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon on exam is absent.</t>
+          <t>ANA strong positive is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of Raynaud's phenomenon, which is often associated with Dermatomyositis, suggests a lower likelihood of the diagnosis.</t>
+          <t>A strong positive ANA is often present in dermatomyositis, so its absence argues against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Weakness on exam is absent.</t>
+          <t>MBS shows aspiration is absent.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>While weakness is typically present in Dermatomyositis, its absence does not rule it out, as some patients may not exhibit this symptom early on.</t>
+          <t>Aspiration can occur in dermatomyositis due to muscle weakness, but its absence does not strongly support the diagnosis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Hoarse voice observed is absent.</t>
+          <t>MBS shows aspiration is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of a hoarse voice, which can be associated with muscle involvement in the throat, further supports the absence of Dermatomyositis.</t>
+          <t>Aspiration due to muscle weakness is a possible finding in dermatomyositis, so its absence is against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon on exam is absent.</t>
+          <t>CT shows ILD is absent.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The absence of Raynaud's phenomenon does not support the diagnosis, but it is not definitive against it either, as not all patients present with this symptom.</t>
+          <t>Interstitial lung disease (ILD) is a common complication of dermatomyositis, so its absence does not support the diagnosis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cough observed is absent.</t>
+          <t>CXR shows widened mediastinum is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of cough, which can be related to respiratory muscle weakness in Dermatomyositis, suggests a lower likelihood of the condition.</t>
+          <t>A widened mediastinum is not typically associated with dermatomyositis, so its absence is not relevant.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hoarse voice observed is absent.</t>
+          <t>CXR shows widened mediastinum is absent.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of a hoarse voice does not directly indicate Dermatomyositis, but it is a symptom that can be present in some cases.</t>
+          <t>A widened mediastinum is not typically associated with dermatomyositis, so its absence is not relevant.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Obesity by vital signs is absent.</t>
+          <t>Hyperlipidemia on lab testing is present.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>While obesity is not directly related to Dermatomyositis, its absence may indicate a lack of systemic involvement that could be expected in such conditions.</t>
+          <t>While hyperlipidemia can be associated with inflammatory conditions, it is not specific to dermatomyositis and does not strongly argue against it.</t>
         </is>
       </c>
     </row>
